--- a/Dataset Fext.xlsx
+++ b/Dataset Fext.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 TA Cok!\0Terbaru ges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CA085B-2F4F-4B43-9031-E10E9647D5C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294197BB-AD02-433F-8879-27A7CE34216A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C9D1AE14-F943-45FD-9590-0A9E4A67A34E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
@@ -110,18 +107,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6F0DFDFF-6BA4-4F0F-8206-02E9247208D7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -202,240 +202,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Calc sheet"/>
-      <sheetName val="Rekap Femm"/>
-      <sheetName val="Zone"/>
-      <sheetName val="ML"/>
-      <sheetName val="Point"/>
-      <sheetName val="Dimensi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="S21">
-            <v>152.06084039379692</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="S22">
-            <v>172.96001234219855</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="S23">
-            <v>197.10993744455845</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="S24">
-            <v>225.55108027718418</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="S25">
-            <v>261.37698271895732</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="S26">
-            <v>307.61481345878531</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="S27">
-            <v>366.62919287670502</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="S28">
-            <v>443.748862426323</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="S29">
-            <v>548.78501120726276</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="S30">
-            <v>692.88500641550957</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="S31">
-            <v>897.31280131090421</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="S32">
-            <v>1202.4774270512321</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="S33">
-            <v>1675.6804498783581</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="S34">
-            <v>2456.6067979842896</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="S35">
-            <v>3907.538492161344</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="S36">
-            <v>6748.4625372348355</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="S40">
-            <v>231.77003859132262</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="S41">
-            <v>242.40232917093894</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="S42">
-            <v>255.23550126133341</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="S43">
-            <v>269.71937726476767</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="S44">
-            <v>286.85808779609812</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="S45">
-            <v>333.1313999489463</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="S46">
-            <v>364.05656760868465</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="S47">
-            <v>402.41601641614631</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="S48">
-            <v>451.42289214694296</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="S49">
-            <v>515.43079555585587</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="S50">
-            <v>602.12975381904766</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="S51">
-            <v>726.13420869644256</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="S52">
-            <v>900.99882281723603</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="S53">
-            <v>1171.9887814533859</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="S54">
-            <v>1623.1879001843247</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="S55">
-            <v>2435.4732298375106</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="S56">
-            <v>4127.9716689049483</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="S58">
-            <v>1048.91130526391</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="S59">
-            <v>1266.7257868301833</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="S60">
-            <v>1576.4809069284429</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="S61">
-            <v>2575.4524391886766</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="S62">
-            <v>575.75230646290981</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="S63">
-            <v>454.36805357324147</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="S64">
-            <v>2816.5323267317617</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="S65">
-            <v>1991.330465992465</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="S66">
-            <v>1645.9744378323949</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276BD946-39F6-44AB-9CAA-4875B17DCF14}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C1" sqref="C1:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,260 +519,239 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>9.9999999999999006E-2</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>9.9999999999999006E-2</v>
       </c>
       <c r="C2" s="4">
-        <f>'[1]Calc sheet'!S21</f>
-        <v>152.06084039379692</v>
+        <v>11440.687602176322</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.95</v>
+        <v>0.149999999999999</v>
       </c>
       <c r="B3" s="2">
-        <v>0.95</v>
+        <v>0.149999999999999</v>
       </c>
       <c r="C3" s="4">
-        <f>'[1]Calc sheet'!S22</f>
-        <v>172.96001234219855</v>
+        <v>3283.1449676068391</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.9</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="B4" s="2">
-        <v>0.9</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="C4" s="4">
-        <f>'[1]Calc sheet'!S23</f>
-        <v>197.10993744455845</v>
+        <v>1316.8754515212947</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.85</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="B5" s="2">
-        <v>0.85</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="C5" s="4">
-        <f>'[1]Calc sheet'!S24</f>
-        <v>225.55108027718418</v>
+        <v>659.02954465183939</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.8</v>
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.25</v>
       </c>
       <c r="C6" s="4">
-        <f>'[1]Calc sheet'!S25</f>
-        <v>261.37698271895732</v>
+        <v>160.73969119456979</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+      <c r="A7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.25</v>
       </c>
       <c r="C7" s="4">
-        <f>'[1]Calc sheet'!S26</f>
-        <v>307.61481345878531</v>
+        <v>194.46586581957666</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.7</v>
+      <c r="A8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.25</v>
       </c>
       <c r="C8" s="4">
-        <f>'[1]Calc sheet'!S27</f>
-        <v>366.62919287670502</v>
+        <v>275.05198503239859</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.65</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="B9" s="2">
-        <v>0.65</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="C9" s="4">
-        <f>'[1]Calc sheet'!S28</f>
-        <v>443.748862426323</v>
+        <v>381.5955558751312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.6</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="B10" s="2">
-        <v>0.6</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="C10" s="4">
-        <f>'[1]Calc sheet'!S29</f>
-        <v>548.78501120726276</v>
+        <v>239.90300761565328</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="B11" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="C11" s="4">
-        <f>'[1]Calc sheet'!S30</f>
-        <v>692.88500641550957</v>
+        <v>153.95321356723073</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0.5</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="B12" s="2">
-        <v>0.5</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="C12" s="4">
-        <f>'[1]Calc sheet'!S31</f>
-        <v>897.31280131090421</v>
+        <v>163.6406689334334</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="B13" s="2">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C13" s="4">
-        <f>'[1]Calc sheet'!S32</f>
-        <v>1202.4774270512321</v>
+        <v>123.70369012013508</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0.39999999999999902</v>
+        <v>0.5</v>
       </c>
       <c r="B14" s="2">
-        <v>0.39999999999999902</v>
+        <v>0.45</v>
       </c>
       <c r="C14" s="4">
-        <f>'[1]Calc sheet'!S33</f>
-        <v>1675.6804498783581</v>
+        <v>102.4327446546787</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0.34999999999999898</v>
+        <v>0.45</v>
       </c>
       <c r="B15" s="2">
-        <v>0.34999999999999898</v>
+        <v>0.45</v>
       </c>
       <c r="C15" s="4">
-        <f>'[1]Calc sheet'!S34</f>
-        <v>2456.6067979842896</v>
+        <v>117.42943623547188</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0.29999999999999899</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.29999999999999899</v>
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.5</v>
       </c>
       <c r="C16" s="4">
-        <f>'[1]Calc sheet'!S35</f>
-        <v>3907.538492161344</v>
+        <v>44.371880231761857</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>0.249999999999999</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.249999999999999</v>
+      <c r="A17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.5</v>
       </c>
       <c r="C17" s="4">
-        <f>'[1]Calc sheet'!S36</f>
-        <v>6748.4625372348355</v>
+        <v>56.225811178018539</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B18" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="4">
-        <f>'[1]Calc sheet'!S40</f>
-        <v>231.77003859132262</v>
+        <v>87.628203253017986</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+      <c r="A19" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.5</v>
       </c>
       <c r="C19" s="4">
-        <f>'[1]Calc sheet'!S41</f>
-        <v>242.40232917093894</v>
+        <v>251.50902726451918</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B20" s="2">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C20" s="4">
-        <f>'[1]Calc sheet'!S42</f>
-        <v>255.23550126133341</v>
+        <v>67.664551407764606</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="B21" s="2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C21" s="4">
-        <f>'[1]Calc sheet'!S43</f>
-        <v>269.71937726476767</v>
+        <v>53.592286250709243</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="B22" s="2">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="C22" s="4">
-        <f>'[1]Calc sheet'!S44</f>
-        <v>286.85808779609812</v>
+        <v>43.334849846320601</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,239 +759,219 @@
         <v>0.7</v>
       </c>
       <c r="B23" s="2">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C23" s="4">
-        <f>'[1]Calc sheet'!S45</f>
-        <v>333.1313999489463</v>
+        <v>35.803632116865721</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
         <v>0.75</v>
       </c>
       <c r="C24" s="4">
-        <f>'[1]Calc sheet'!S46</f>
-        <v>364.05656760868465</v>
+        <v>22.633792831183847</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="B25" s="2">
         <v>0.75</v>
       </c>
       <c r="C25" s="4">
-        <f>'[1]Calc sheet'!S47</f>
-        <v>402.41601641614631</v>
+        <v>23.672102458099502</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="B26" s="2">
         <v>0.75</v>
       </c>
       <c r="C26" s="4">
-        <f>'[1]Calc sheet'!S48</f>
-        <v>451.42289214694296</v>
+        <v>24.925341920052091</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="B27" s="2">
         <v>0.75</v>
       </c>
       <c r="C27" s="4">
-        <f>'[1]Calc sheet'!S49</f>
-        <v>515.43079555585587</v>
+        <v>26.339782936012469</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="B28" s="2">
         <v>0.75</v>
       </c>
       <c r="C28" s="4">
-        <f>'[1]Calc sheet'!S50</f>
-        <v>602.12975381904766</v>
+        <v>28.013485136337703</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>0.39999999999999902</v>
+        <v>0.75</v>
       </c>
       <c r="B29" s="2">
         <v>0.75</v>
       </c>
       <c r="C29" s="4">
-        <f>'[1]Calc sheet'!S51</f>
-        <v>726.13420869644256</v>
+        <v>30.0405091268345</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>0.34999999999999898</v>
+        <v>0.7</v>
       </c>
       <c r="B30" s="2">
         <v>0.75</v>
       </c>
       <c r="C30" s="4">
-        <f>'[1]Calc sheet'!S52</f>
-        <v>900.99882281723603</v>
+        <v>32.532363276264284</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>0.29999999999999899</v>
+        <v>0.65</v>
       </c>
       <c r="B31" s="2">
         <v>0.75</v>
       </c>
       <c r="C31" s="4">
-        <f>'[1]Calc sheet'!S53</f>
-        <v>1171.9887814533859</v>
+        <v>35.552399180535609</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>0.249999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="B32" s="2">
         <v>0.75</v>
       </c>
       <c r="C32" s="4">
-        <f>'[1]Calc sheet'!S54</f>
-        <v>1623.1879001843247</v>
+        <v>39.298439103139287</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>0.19999999999999901</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B33" s="2">
         <v>0.75</v>
       </c>
       <c r="C33" s="4">
-        <f>'[1]Calc sheet'!S55</f>
-        <v>2435.4732298375106</v>
+        <v>44.084266811224893</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>0.149999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="B34" s="2">
         <v>0.75</v>
       </c>
       <c r="C34" s="4">
-        <f>'[1]Calc sheet'!S56</f>
-        <v>4127.9716689049483</v>
+        <v>50.33503862850155</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="B35" s="2">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="C35" s="4">
-        <f>'[1]Calc sheet'!S58</f>
-        <v>1048.91130526391</v>
+        <v>58.801733771391376</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>0.5</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="B36" s="2">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="C36" s="4">
-        <f>'[1]Calc sheet'!S59</f>
-        <v>1266.7257868301833</v>
+        <v>70.911543818011964</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>0.5</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="B37" s="2">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="C37" s="4">
-        <f>'[1]Calc sheet'!S60</f>
-        <v>1576.4809069284429</v>
+        <v>87.988166290745696</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>0.25</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="B38" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C38" s="4">
-        <f>'[1]Calc sheet'!S61</f>
-        <v>2575.4524391886766</v>
+        <v>114.45202943880722</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>0.75</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="B39" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C39" s="4">
-        <f>'[1]Calc sheet'!S62</f>
-        <v>575.75230646290981</v>
+        <v>158.51444337737544</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="B40" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C40" s="4">
-        <f>'[1]Calc sheet'!S63</f>
-        <v>454.36805357324147</v>
+        <v>237.83918260131938</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>0.5</v>
+        <v>0.149999999999999</v>
       </c>
       <c r="B41" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C41" s="4">
-        <f>'[1]Calc sheet'!S64</f>
-        <v>2816.5323267317617</v>
+        <v>403.12223329149879</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>0.75</v>
+        <v>9.9999999999999006E-2</v>
       </c>
       <c r="B42" s="2">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C42" s="4">
-        <f>'[1]Calc sheet'!S65</f>
-        <v>1991.330465992465</v>
+        <v>849.17576097917322</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,11 +979,98 @@
         <v>1</v>
       </c>
       <c r="B43" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C43" s="4">
+        <v>20.511071975841219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C44" s="4">
+        <v>25.525095968648174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C45" s="4">
+        <v>22.026472683318769</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C46" s="4">
+        <v>19.249017328570162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C47" s="4">
+        <v>16.890626205292829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>14.849691444706728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>20.463202274954007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>36.216193607871823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>0.25</v>
       </c>
-      <c r="C43" s="4">
-        <f>'[1]Calc sheet'!S66</f>
-        <v>1645.9744378323949</v>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>119.15302855034857</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset Fext.xlsx
+++ b/Dataset Fext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 TA Cok!\0Terbaru ges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294197BB-AD02-433F-8879-27A7CE34216A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15C4ABA-AD35-4FC8-AEFF-80C82049A627}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C9D1AE14-F943-45FD-9590-0A9E4A67A34E}"/>
   </bookViews>
@@ -83,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,18 +106,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276BD946-39F6-44AB-9CAA-4875B17DCF14}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection sqref="A1:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,178 +536,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>9.9999999999999006E-2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>9.9999999999999006E-2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>11440.687602176322</v>
+        <v>14.849691444706728</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0.149999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="B3" s="2">
-        <v>0.149999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C3" s="4">
-        <v>3283.1449676068391</v>
+        <v>16.890626205292829</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.19999999999999901</v>
+        <v>0.9</v>
       </c>
       <c r="B4" s="2">
-        <v>0.19999999999999901</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="4">
-        <v>1316.8754515212947</v>
+        <v>19.249017328570162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>0.249999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="B5" s="2">
-        <v>0.249999999999999</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>659.02954465183939</v>
+        <v>20.463202274954007</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.25</v>
+      <c r="B6" s="2">
+        <v>0.8</v>
       </c>
       <c r="C6" s="4">
-        <v>160.73969119456979</v>
+        <v>20.511071975841219</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.25</v>
+      <c r="A7" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.85</v>
       </c>
       <c r="C7" s="4">
-        <v>194.46586581957666</v>
+        <v>22.026472683318769</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.25</v>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.75</v>
       </c>
       <c r="C8" s="4">
-        <v>275.05198503239859</v>
+        <v>22.633792831183847</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>0.29999999999999899</v>
+        <v>0.95</v>
       </c>
       <c r="B9" s="2">
-        <v>0.29999999999999899</v>
+        <v>0.75</v>
       </c>
       <c r="C9" s="4">
-        <v>381.5955558751312</v>
+        <v>23.672102458099502</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>0.34999999999999898</v>
+        <v>0.9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.34999999999999898</v>
+        <v>0.75</v>
       </c>
       <c r="C10" s="4">
-        <v>239.90300761565328</v>
+        <v>24.925341920052091</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="B11" s="2">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="C11" s="4">
-        <v>153.95321356723073</v>
+        <v>25.525095968648174</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>0.39999999999999902</v>
+        <v>0.85</v>
       </c>
       <c r="B12" s="2">
-        <v>0.39999999999999902</v>
+        <v>0.75</v>
       </c>
       <c r="C12" s="4">
-        <v>163.6406689334334</v>
+        <v>26.339782936012469</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="B13" s="2">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="C13" s="4">
-        <v>123.70369012013508</v>
+        <v>28.013485136337703</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B14" s="2">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="C14" s="4">
-        <v>102.4327446546787</v>
+        <v>30.0405091268345</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="B15" s="2">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="C15" s="4">
-        <v>117.42943623547188</v>
+        <v>32.532363276264284</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.5</v>
+      <c r="A16" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.75</v>
       </c>
       <c r="C16" s="4">
-        <v>44.371880231761857</v>
+        <v>35.552399180535609</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.5</v>
+      <c r="A17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.7</v>
       </c>
       <c r="C17" s="4">
-        <v>56.225811178018539</v>
+        <v>35.803632116865721</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,377 +715,369 @@
         <v>0.5</v>
       </c>
       <c r="B18" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4">
-        <v>87.628203253017986</v>
+        <v>36.216193607871823</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.5</v>
+      <c r="A19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.75</v>
       </c>
       <c r="C19" s="4">
-        <v>251.50902726451918</v>
+        <v>39.298439103139287</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="B20" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="C20" s="4">
-        <v>67.664551407764606</v>
+        <v>43.334849846320601</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B21" s="2">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C21" s="4">
-        <v>53.592286250709243</v>
+        <v>44.084266811224893</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.65</v>
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.5</v>
       </c>
       <c r="C22" s="4">
-        <v>43.334849846320601</v>
+        <v>44.371880231761857</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="B23" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C23" s="4">
-        <v>35.803632116865721</v>
+        <v>50.33503862850155</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="B24" s="2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C24" s="4">
-        <v>22.633792831183847</v>
+        <v>53.592286250709243</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+      <c r="A25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.5</v>
       </c>
       <c r="C25" s="4">
-        <v>23.672102458099502</v>
+        <v>56.225811178018539</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="B26" s="2">
         <v>0.75</v>
       </c>
       <c r="C26" s="4">
-        <v>24.925341920052091</v>
+        <v>58.801733771391376</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B27" s="2">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C27" s="4">
-        <v>26.339782936012469</v>
+        <v>67.664551407764606</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>0.8</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="B28" s="2">
         <v>0.75</v>
       </c>
       <c r="C28" s="4">
-        <v>28.013485136337703</v>
+        <v>70.911543818011964</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="B29" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="4">
-        <v>30.0405091268345</v>
+        <v>87.628203253017986</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>0.7</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="B30" s="2">
         <v>0.75</v>
       </c>
       <c r="C30" s="4">
-        <v>32.532363276264284</v>
+        <v>87.988166290745696</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="B31" s="2">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="C31" s="4">
-        <v>35.552399180535609</v>
+        <v>102.4327446546787</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>0.6</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="B32" s="2">
         <v>0.75</v>
       </c>
       <c r="C32" s="4">
-        <v>39.298439103139287</v>
+        <v>114.45202943880722</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="B33" s="2">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="C33" s="4">
-        <v>44.084266811224893</v>
+        <v>117.42943623547188</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B34" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C34" s="4">
-        <v>50.33503862850155</v>
+        <v>119.15302855034857</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="B35" s="2">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="C35" s="4">
-        <v>58.801733771391376</v>
+        <v>123.70369012013508</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>0.39999999999999902</v>
+        <v>0.5</v>
       </c>
       <c r="B36" s="2">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="C36" s="4">
-        <v>70.911543818011964</v>
+        <v>153.95321356723073</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>0.34999999999999898</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="B37" s="2">
         <v>0.75</v>
       </c>
       <c r="C37" s="4">
-        <v>87.988166290745696</v>
+        <v>158.51444337737544</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>0.29999999999999899</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.75</v>
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.25</v>
       </c>
       <c r="C38" s="4">
-        <v>114.45202943880722</v>
+        <v>160.73969119456979</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>0.249999999999999</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="B39" s="2">
-        <v>0.75</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="C39" s="4">
-        <v>158.51444337737544</v>
+        <v>163.6406689334334</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>0.19999999999999901</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.75</v>
+      <c r="A40" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.25</v>
       </c>
       <c r="C40" s="4">
-        <v>237.83918260131938</v>
+        <v>194.46586581957666</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>0.149999999999999</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="B41" s="2">
         <v>0.75</v>
       </c>
       <c r="C41" s="4">
-        <v>403.12223329149879</v>
+        <v>237.83918260131938</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>9.9999999999999006E-2</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="B42" s="2">
-        <v>0.75</v>
+        <v>0.34999999999999898</v>
       </c>
       <c r="C42" s="4">
-        <v>849.17576097917322</v>
+        <v>239.90300761565328</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.8</v>
+      <c r="A43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.5</v>
       </c>
       <c r="C43" s="4">
-        <v>20.511071975841219</v>
+        <v>251.50902726451918</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.8</v>
+      <c r="A44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.25</v>
       </c>
       <c r="C44" s="4">
-        <v>25.525095968648174</v>
+        <v>275.05198503239859</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>0.85</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="B45" s="2">
-        <v>0.85</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="C45" s="4">
-        <v>22.026472683318769</v>
+        <v>381.5955558751312</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>0.9</v>
+        <v>0.149999999999999</v>
       </c>
       <c r="B46" s="2">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="C46" s="4">
-        <v>19.249017328570162</v>
+        <v>403.12223329149879</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>0.95</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="B47" s="2">
-        <v>0.95</v>
+        <v>0.249999999999999</v>
       </c>
       <c r="C47" s="4">
-        <v>16.890626205292829</v>
+        <v>659.02954465183939</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>1</v>
+        <v>9.9999999999999006E-2</v>
       </c>
       <c r="B48" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C48" s="4">
-        <v>14.849691444706728</v>
+        <v>849.17576097917322</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>0.75</v>
+        <v>0.19999999999999901</v>
       </c>
       <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4">
-        <v>20.463202274954007</v>
+        <v>0.19999999999999901</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1316.8754515212947</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4">
-        <v>36.216193607871823</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4">
-        <v>119.15302855034857</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{363D65AE-015C-46AC-9F31-AAD883CB8CFB}"/>
+  <autoFilter ref="A1:C1" xr:uid="{363D65AE-015C-46AC-9F31-AAD883CB8CFB}">
+    <sortState ref="A2:C51">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>